--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB60DB1B-D1F4-4801-93EB-633959959178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="233">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -988,11 +987,27 @@
     <t>AcctCode = ,AND CustNo = ,AND RvNo = ,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>RvAcctCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳業務科目代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出帳與銷帳科目不同時寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1364,8 +1379,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1456,23 +1471,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1508,23 +1506,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1700,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -2652,10 +2633,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
@@ -3050,11 +3031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3062,10 +3043,10 @@
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="49.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" customWidth="1"/>
     <col min="8" max="8" width="42" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3170,6 +3151,27 @@
         <v>190</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="32.4">
+      <c r="B9" s="32">
+        <v>4</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F9" s="32">
+        <v>3</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE880D-549B-4F8A-A7FE-AAEFE833AA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,15 +18,6 @@
     <sheet name="JsonFields" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -179,10 +171,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1一段式，2二段式，3三段式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaRelCd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,10 +214,6 @@
   </si>
   <si>
     <t xml:space="preserve">細目代號    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D-借，C-貸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -577,10 +561,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">0:未入帳 1:已入帳  2:被沖正(隔日訂正) 3.沖正(隔日訂正) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RvNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -676,21 +656,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01~10-關帳
-11-支票繳款
-90~99 提存帳務，不會更新AcMain總帳檔
-99-利息提存 98-迴轉上月
-96-放款承諾 97-迴轉上月
-95-未付火險費提存 94-迴轉上月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">業務科目記號    </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 非業務科目
-1: 資負明細科目（放款、催收款項..)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -759,14 +725,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0－非銷帳科目(會計科子細目設定檔帶入)
-1－會計銷帳科目(會計科子細目設定檔帶入)
-2－業務銷帳科目(會計科子細目設定檔帶入)
-3－未收費用、4-短繳期金、5-另收欠款(銷帳檔帶入)
-8－核心銷帳碼科目，須以銷帳編號(銷帳碼彙總)上傳核心(會計科子細目設定檔帶入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RenewCode</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -790,31 +748,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">撥還共用(0XX)／還款來源(1xx)／撥款方式(2xx)
-090.暫收抵繳
-091:借新還舊
-092:暫收轉帳
-093:抽退票
-094:轉債協暫收款
-095:轉債協退還款
-101.匯款轉帳
-102.銀行扣款
-103.員工扣款
-104.支票兌現
-105.法院扣薪
-106.理賠金
-107.代收款-債權協商
-109.其他
-111.匯款轉帳預先作業
-201:整批匯款
-202:單筆匯款
-204:退款台新(存款憑條)
-205:退款他行(整批匯款)
-211:退款新光(存款憑條)
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>區隔帳冊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -827,19 +760,185 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>00A:傳統帳冊;201:利變年金帳冊
-帳冊別記號=0時，不須處理
-帳冊別記號=1時，由帳冊別處理公用程式設定
-帳冊別記號=3時，由業務交易帶入</t>
+    <t>SubBookAcNoCodeRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookSumNoRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookTitaTlrNoRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookTitaBatchNoRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookDscptCodeRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookSlipBatNoRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookTitaSecNoRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo = ,AND FacmNo = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaTlrNo &gt;= ,AND TitaTlrNo &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaBatchNo &gt;= ,AND TitaBatchNo &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND DscptCode &gt;= ,AND DscptCode &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SlipBatNo &gt;= ,AND SlipBatNo &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaSecNo &gt;= ,AND TitaSecNo &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SumNo &gt;= ,AND SumNo &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND RvNo %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookAcNoCodeRange1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookSumNoRange1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookTitaTlrNoRange1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookTitaBatchNoRange1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookDscptCodeRange1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookSlipBatNoRange1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubBookTitaSecNoRange1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SumNo &gt;= ,AND SumNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaTlrNo &gt;= ,AND TitaTlrNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaBatchNo &gt;= ,AND TitaBatchNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND DscptCode &gt;= ,AND DscptCode &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SlipBatNo &gt;= ,AND SlipBatNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaSecNo &gt;= ,AND TitaSecNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode = ,AND CustNo = ,AND RvNo = ,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RvAcctCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳業務科目代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出帳與銷帳科目不同時寫入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RelDy = ,AND RelTxseq = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:借
+C:貸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0:未入帳
+1:已入帳
+2:被沖正(隔日訂正)
+3.沖正(隔日訂正) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非業務科目
+1:資負明細科目（放款、催收款項..)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非銷帳科目(會計科子細目設定檔帶入)
+1:會計銷帳科目(會計科子細目設定檔帶入)
+2:業務銷帳科目(會計科子細目設定檔帶入)
+3:未收費用、4-短繳期金、5-另收欠款(銷帳檔帶入)
+8:核心銷帳碼科目，須以銷帳編號(銷帳碼彙總)上傳核心(會計科子細目設定檔帶入)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <t xml:space="preserve">CdAcCode會計科子細目設定檔帶入(0,1,2)
-0: 不細分，區隔帳冊固定為00A:傳統帳冊
-1: 細分，區隔帳冊By戶號設定(AcBookCom)
-2: 中介，應收調撥款科目
-   </t>
+0:不細分，區隔帳冊固定為00A:傳統帳冊
+1:細分，區隔帳冊By戶號設定(AcBookCom)
+2:中介，應收調撥款科目
+  </t>
     </r>
     <r>
       <rPr>
@@ -850,164 +949,67 @@
         <charset val="136"/>
       </rPr>
       <t>※明細檔無(只寫入總帳檔)，應收調撥款之核心傳票媒體檔，係自動產生。
-3: 指定帳冊，區隔帳冊由業務交易指定
-   ※L6201:其他傳票輸入、L618D各項提存</t>
+3:指定帳冊，區隔帳冊由業務交易指定
+  ※L6201:其他傳票輸入、L618D各項提存</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SubBookAcNoCodeRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookSumNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookTitaTlrNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookTitaBatchNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookDscptCodeRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookSlipBatNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookTitaSecNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND CustNo = ,AND FacmNo = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode = ,AND AcDtlCode = ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaTlrNo &gt;= ,AND TitaTlrNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaBatchNo &gt;= ,AND TitaBatchNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND DscptCode &gt;= ,AND DscptCode &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SlipBatNo &gt;= ,AND SlipBatNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaSecNo &gt;= ,AND TitaSecNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SumNo &gt;= ,AND SumNo &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND RvNo %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookAcNoCodeRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookSumNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookTitaTlrNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookTitaBatchNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookDscptCodeRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookSlipBatNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubBookTitaSecNoRange1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SumNo &gt;= ,AND SumNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaTlrNo &gt;= ,AND TitaTlrNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaBatchNo &gt;= ,AND TitaBatchNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND DscptCode &gt;= ,AND DscptCode &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND SlipBatNo &gt;= ,AND SlipBatNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaSecNo &gt;= ,AND TitaSecNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode = ,AND CustNo = ,AND RvNo = ,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RvAcctCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷帳業務科目代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>出帳與銷帳科目不同時寫入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RelDy = ,AND RelTxseq = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>00A:傳統帳冊
+201:利變年金帳冊
+帳冊別記號=0時，不須處理
+帳冊別記號=1時，由帳冊別處理公用程式設定
+帳冊別記號=3時，由業務交易帶入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">撥還共用(0XX)／還款來源(1xx)／撥款方式(2xx)
+090:暫收抵繳
+091:借新還舊
+092:暫收轉帳
+093:抽退票
+094:轉債協暫收款
+095:轉債協退還款
+101:匯款轉帳
+102:銀行扣款
+103:員工扣款
+104:支票兌現
+105:法院扣薪
+106:理賠金
+107:代收款-債權協商
+109:其他
+111:匯款轉帳預先作業
+201:整批匯款
+202:單筆匯款
+204:退款台新(存款憑條)
+205:退款他行(整批匯款)
+211:退款新光(存款憑條)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01~10:關帳
+11:支票繳款
+90~99:提存帳務，不會更新AcMain總帳檔
+99:利息提存
+98:迴轉上月
+96:放款承諾
+97:迴轉上月
+95:未付火險費提存
+94:迴轉上月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:一段式
+2:二段式
+3:三段式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1201,7 +1203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,9 +1282,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1375,12 +1374,18 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1471,6 +1476,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1506,6 +1528,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1681,42 +1720,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="26" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="84.5546875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="84.5546875" style="26" customWidth="1"/>
     <col min="8" max="16384" width="5.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1728,12 +1767,12 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>13</v>
@@ -1743,10 +1782,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
@@ -1754,12 +1793,12 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -1767,12 +1806,12 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="64.8">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
@@ -1780,12 +1819,12 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="81">
-      <c r="A7" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="56"/>
+      <c r="A7" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
@@ -1793,12 +1832,12 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="48.6">
-      <c r="A8" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="43" t="s">
-        <v>161</v>
+      <c r="A8" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
@@ -1833,13 +1872,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="20">
         <v>8</v>
@@ -1852,12 +1891,12 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="23">
@@ -1865,7 +1904,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1873,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -1892,13 +1931,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="20">
         <v>8</v>
@@ -1911,12 +1950,12 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="20">
@@ -1930,12 +1969,12 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="20">
@@ -1949,41 +1988,41 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="50">
         <v>11</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="36" customFormat="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="35" customFormat="1">
       <c r="A17" s="20">
         <v>8</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="31">
+        <v>5</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="32">
-        <v>5</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1991,12 +2030,12 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="20">
@@ -2004,48 +2043,48 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="36" customFormat="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="35" customFormat="1">
       <c r="A19" s="20">
         <v>10</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="B19" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="33">
         <v>3</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32.4">
       <c r="A20" s="20">
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>52</v>
+      <c r="G20" s="57" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2056,7 +2095,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -2068,14 +2107,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="64.8">
       <c r="A22" s="20">
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -2084,8 +2123,8 @@
       <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>142</v>
+      <c r="G22" s="58" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2093,7 +2132,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>15</v>
@@ -2112,7 +2151,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>16</v>
@@ -2131,7 +2170,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>31</v>
@@ -2148,12 +2187,12 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="23">
@@ -2161,70 +2200,70 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="36" customFormat="1" ht="32.4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="32.4">
       <c r="A27" s="20">
         <v>18</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="34">
+      <c r="B27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="33">
         <v>1</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="36" customFormat="1" ht="81">
+      <c r="F27" s="34"/>
+      <c r="G27" s="36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="35" customFormat="1" ht="81">
       <c r="A28" s="20">
         <v>19</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="34">
+      <c r="B28" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="33">
         <v>1</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="36" customFormat="1" ht="113.4">
+      <c r="F28" s="34"/>
+      <c r="G28" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="35" customFormat="1" ht="113.4">
       <c r="A29" s="20">
         <v>20</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="42" t="s">
+      <c r="B29" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <v>1</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="38" t="s">
-        <v>195</v>
+      <c r="F29" s="34"/>
+      <c r="G29" s="37" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2232,43 +2271,43 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="31">
-        <v>3</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="G30" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="64.8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="81">
       <c r="A31" s="20">
         <v>22</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="50">
+      <c r="B31" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="49">
         <v>3</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="52" t="s">
-        <v>194</v>
+      <c r="G31" s="51" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="372.6">
@@ -2276,19 +2315,19 @@
         <v>23</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="29">
+        <v>54</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="28">
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2296,15 +2335,15 @@
         <v>24</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>4</v>
       </c>
     </row>
@@ -2318,31 +2357,31 @@
       <c r="C34" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>60</v>
+      <c r="D34" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="E34" s="20">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="97.2">
+    <row r="35" spans="1:7" ht="145.80000000000001">
       <c r="A35" s="20">
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="29">
+      <c r="D35" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="28">
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2350,13 +2389,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="20">
         <v>6</v>
@@ -2367,12 +2406,12 @@
         <v>28</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="23">
@@ -2386,12 +2425,12 @@
         <v>29</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="23">
@@ -2405,10 +2444,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>14</v>
@@ -2424,12 +2463,12 @@
         <v>31</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="23">
@@ -2448,7 +2487,7 @@
       <c r="C41" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="20">
@@ -2460,15 +2499,15 @@
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="28">
         <v>6</v>
       </c>
     </row>
@@ -2477,12 +2516,12 @@
         <v>34</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="20">
@@ -2493,28 +2532,28 @@
       <c r="A44" s="20">
         <v>35</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="28">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="48.6">
       <c r="A45" s="20">
         <v>36</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>41</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>26</v>
@@ -2522,8 +2561,8 @@
       <c r="E45" s="20">
         <v>1</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>39</v>
+      <c r="G45" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2531,10 +2570,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>11</v>
@@ -2543,77 +2582,77 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="36" customFormat="1">
+    <row r="47" spans="1:7" s="35" customFormat="1">
       <c r="A47" s="20">
         <v>38</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="32"/>
-    </row>
-    <row r="48" spans="1:7" s="36" customFormat="1">
+      <c r="E47" s="31"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="31"/>
+    </row>
+    <row r="48" spans="1:7" s="35" customFormat="1">
       <c r="A48" s="20">
         <v>39</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="B48" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>6</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="32"/>
-    </row>
-    <row r="49" spans="1:7" s="36" customFormat="1">
+      <c r="F48" s="34"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:7" s="35" customFormat="1">
       <c r="A49" s="20">
         <v>40</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="32"/>
-    </row>
-    <row r="50" spans="1:7" s="36" customFormat="1">
+      <c r="B49" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" s="35" customFormat="1">
       <c r="A50" s="20">
         <v>41</v>
       </c>
-      <c r="B50" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="39" t="s">
+      <c r="B50" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="31">
         <v>6</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="32"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2633,10 +2672,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -2662,365 +2701,365 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3052,12 +3091,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3083,93 +3122,93 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="46" customFormat="1" ht="162">
-      <c r="A6" s="44"/>
-      <c r="B6" s="32">
+    <row r="6" spans="1:8" s="45" customFormat="1" ht="162">
+      <c r="A6" s="43"/>
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="C6" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>1</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="37" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="64.8">
+      <c r="A7" s="43"/>
+      <c r="B7" s="31">
+        <v>2</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="46" customFormat="1" ht="64.8">
-      <c r="A7" s="44"/>
-      <c r="B7" s="32">
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="45" customFormat="1" ht="32.4">
+      <c r="A8" s="43"/>
+      <c r="B8" s="31">
+        <v>3</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="31">
+        <v>16</v>
+      </c>
+      <c r="G8" s="31">
         <v>2</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="47">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="46" customFormat="1" ht="32.4">
-      <c r="A8" s="44"/>
-      <c r="B8" s="32">
+      <c r="H8" s="36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="31">
+        <v>4</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="31">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="32">
-        <v>16</v>
-      </c>
-      <c r="G8" s="32">
-        <v>2</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="32">
-        <v>4</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" s="32">
-        <v>3</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="37" t="s">
-        <v>231</v>
+      <c r="G9" s="31"/>
+      <c r="H9" s="36" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE880D-549B-4F8A-A7FE-AAEFE833AA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE80EF12-477D-4E76-A4DE-4B5E7158ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="233">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1363,6 +1363,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1374,12 +1380,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -1739,10 +1739,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="7" t="s">
         <v>80</v>
       </c>
@@ -1754,8 +1754,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1767,10 +1767,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="16" t="s">
         <v>75</v>
       </c>
@@ -1782,63 +1782,61 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="16"/>
       <c r="D4" s="17"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:7" ht="64.8">
+      <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="64.8">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:7" ht="81">
+      <c r="A6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="16" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="81">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:7" ht="48.6">
+      <c r="A7" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="16" t="s">
-        <v>88</v>
+      <c r="B7" s="57"/>
+      <c r="C7" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="48.6">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="42" t="s">
-        <v>158</v>
-      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
@@ -2083,7 +2081,7 @@
       <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="53" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2123,7 +2121,7 @@
       <c r="E22" s="20">
         <v>1</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="54" t="s">
         <v>225</v>
       </c>
     </row>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE80EF12-477D-4E76-A4DE-4B5E7158ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D891C3-1319-419E-B082-FA4F9579F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="235">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1003,6 +1003,14 @@
     <t>1:一段式
 2:二段式
 3:三段式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acdtlAcDateRange2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcNoCode = ,AND AcSubCode =  ,AND AcDate &gt;= ,AND AcDate &lt;= </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1723,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2671,11 +2679,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3058,6 +3066,17 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
